--- a/ds/planejamento/1semestre/planos/Planos_de_Ensino_ARI.xlsx
+++ b/ds/planejamento/1semestre/planos/Planos_de_Ensino_ARI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instrutor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F2E3C0-E730-46DA-9CD6-0D729A72D44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698E288B-5912-4B82-8CCE-780B7C177EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="h9gkGl1sfnRHyr05LFfZmsKJ7cUyj85gDjaHNauDRX4="/>
     </ext>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="135">
   <si>
     <t>PLANO DE ENSINO</t>
   </si>
@@ -201,9 +204,6 @@
     <t>4 Demonstrar autonomia</t>
   </si>
   <si>
-    <t>Dia08 Dia09 Dia10</t>
-  </si>
-  <si>
     <t>Desenvolver capacidades básicas e socioemocionais necessárias para utilizar serviços de redes locais e industriais, para aplicações em nuvens públicas e privadas</t>
   </si>
   <si>
@@ -211,12 +211,6 @@
   </si>
   <si>
     <t>Data: 09/02/2026</t>
-  </si>
-  <si>
-    <t>Carga Horária Presencial: 50</t>
-  </si>
-  <si>
-    <t>Carga Horária Total: 50</t>
   </si>
   <si>
     <t>1 Identificar as topologias empregadas nas redes de computadores</t>
@@ -463,12 +457,6 @@
 4.6. Armazenamento</t>
   </si>
   <si>
-    <t>Dia11 Dia12 Dia13 Dia14 dia15</t>
-  </si>
-  <si>
-    <t>Dia16 Dia17 Dia18 Dia19 Dia20</t>
-  </si>
-  <si>
     <t>Aula expositiva, Listas de exercícios, Aulas práticas utilizando o simulador Thinkercad</t>
   </si>
   <si>
@@ -514,6 +502,119 @@
   </si>
   <si>
     <t>Entrega</t>
+  </si>
+  <si>
+    <t>Automação indústrial normalmente é um processo caro que requer muita qualificação dos engenheiros envolvidos e equipamentos de ultima geração. Como parte da equipe de automação da empresa XPTO você possui algumas demandas de desenvolvimento de protótipos e precisa resolver alguns desafios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Controlar um servo motor (Micro Servo) ao girar um potenciômetro de 1Kohm, para isso será necessário utilizar um capacitor de 100 mF para completar o circuito com o Micro servo, conforme ilutração a seguir. Utilizando o simulador ThinkerCad, codifique um programa para controlar o giro do Micro servo ao girar o potenciômetro.
+</t>
+  </si>
+  <si>
+    <t>2) A seguir temos um Arduino UNO conectado a um display de 7 seguimentos, para isso será necessário 8 resistores de 470ohms, um resistor de 4.7Kohms ligado ao Botão de comando. O código ao lado é um contador de 0 a 9 quando o botão é pressionado.</t>
+  </si>
+  <si>
+    <r>
+      <t>1) Tire print dos seus protótipos e dos respectivos códigos.
+2) Em um repositório público do github crie uma pasta de imagens e envie os prints
+3) Edite um arquivo README.md colocando uma Introdução, objetivos e os protótipos explicando as funcionalidades e os problemas que eles resolvem.
+4) Envie o link do repositório ao instrutor para ser avaliado
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Capacidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 5 Configurar os tipos de serviços fundamentais de redes]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Você precisa trocar o botão por um potenciômetro de 1Kohm que quando girado no sentido horário aumente de 0 a 9 e mostre no display e ao ser girado no sentido oposto diminua o contador. [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Capacidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:4 Aplicar arquitetura de hardware em IoT]</t>
+    </r>
+  </si>
+  <si>
+    <t>Implementou ao menos uma solução no simulador.</t>
+  </si>
+  <si>
+    <t>Implementou as duas soluções no simulador com eficácia</t>
+  </si>
+  <si>
+    <t>Criou o repositório público no github</t>
+  </si>
+  <si>
+    <t>Implementou as duas soluções no simulador com os componentes indicado e as ligações conforme instruções.</t>
+  </si>
+  <si>
+    <t>Enviou ao menos um print de tela para o repositório</t>
+  </si>
+  <si>
+    <t>Enviou os prints e editou o arquivo README.md conforme as orientações</t>
+  </si>
+  <si>
+    <t>Entendeu os problemas propostos e relacionou aos conceitos estudados para implementar as soluções mesmo que não tenha solucionado as duas por completo</t>
+  </si>
+  <si>
+    <t>Pesquisou dados em suas próprias bases de conhecimento e em outras fontes a fim de encontrar uma solução, usando IA apenas como auxílio, entendendo sua proposta de solução e não apenas copiando e colando</t>
+  </si>
+  <si>
+    <t>Entendeu e executou todas as tarefas tirando dúvidas com o instrutor ou colegas se necessário</t>
+  </si>
+  <si>
+    <t>Entendeu e executou ao menos uma das tarefas tirando dúvidas com o instrutor ou colegas se necessário</t>
+  </si>
+  <si>
+    <t>Dia18 Dia19 Dia20</t>
+  </si>
+  <si>
+    <t>Dia15 Dia16 Dia17</t>
+  </si>
+  <si>
+    <t>Carga Horária Presencial: 30</t>
+  </si>
+  <si>
+    <t>Carga Horária Total: 30</t>
+  </si>
+  <si>
+    <t>Carga Horária Presencial: 70</t>
+  </si>
+  <si>
+    <t>Carga Horária Total: 70</t>
+  </si>
+  <si>
+    <t>Dia08 Dia09 Dia10 Dia11 Dia12 Dia13 Dia14</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1267,50 +1368,31 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1327,7 +1409,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1339,58 +1435,8 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1401,20 +1447,98 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1451,59 +1575,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1514,32 +1596,76 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1550,31 +1676,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1739,22 +1846,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>68036</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:colOff>1524000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>3057525</xdr:rowOff>
+      <xdr:rowOff>3476625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Planta">
+        <xdr:cNvPr id="4" name="Imagem 3" descr="Micro servo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7A96DE-96FA-42E3-890D-1ADAAECDD788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7531BD-196F-430F-940C-F6C46142F5F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1777,8 +1884,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="85725" y="12058650"/>
-          <a:ext cx="4914900" cy="3019425"/>
+          <a:off x="68036" y="8324850"/>
+          <a:ext cx="4408714" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1793,6 +1900,111 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>71207</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4679600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4" descr="Micro servo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D07969E-7631-4CEA-B2C3-2FADD79C9C2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="71207" y="12477750"/>
+          <a:ext cx="4500793" cy="4470050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4672286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D18D2E-524E-4491-9E0D-F5E6DF0690A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="12477529"/>
+          <a:ext cx="6724650" cy="4462957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2370,7 +2582,7 @@
   <dimension ref="A1:AA690"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2389,134 +2601,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="111" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="92" t="s">
+      <c r="F2" s="100"/>
+      <c r="G2" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92" t="s">
+      <c r="H2" s="93"/>
+      <c r="I2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="92"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="113" t="s">
-        <v>57</v>
+      <c r="A3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="101" t="s">
+        <v>56</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="90" t="s">
+      <c r="F3" s="101"/>
+      <c r="G3" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="91" t="s">
-        <v>56</v>
+      <c r="B4" s="108"/>
+      <c r="C4" s="98" t="s">
+        <v>55</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="102" t="s">
-        <v>58</v>
+      <c r="D4" s="98"/>
+      <c r="E4" s="115" t="s">
+        <v>132</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="90" t="s">
+      <c r="F4" s="116"/>
+      <c r="G4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="104" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="97" t="s">
-        <v>55</v>
+      <c r="B6" s="108"/>
+      <c r="C6" s="110" t="s">
+        <v>54</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="80" t="s">
-        <v>59</v>
+      <c r="D6" s="110"/>
+      <c r="E6" s="119" t="s">
+        <v>133</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
     </row>
     <row r="7" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
     </row>
     <row r="8" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
     </row>
     <row r="9" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -2537,14 +2749,14 @@
       <c r="F9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99" t="s">
+      <c r="H9" s="112"/>
+      <c r="I9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="99"/>
+      <c r="J9" s="112"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2571,25 +2783,25 @@
         <v>15</v>
       </c>
       <c r="C10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>63</v>
-      </c>
       <c r="E10" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="100" t="s">
-        <v>66</v>
+      <c r="G10" s="113" t="s">
+        <v>63</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="100" t="s">
-        <v>72</v>
+      <c r="H10" s="114"/>
+      <c r="I10" s="113" t="s">
+        <v>69</v>
       </c>
-      <c r="J10" s="101"/>
+      <c r="J10" s="114"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2616,25 +2828,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>64</v>
-      </c>
       <c r="E11" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="100" t="s">
-        <v>67</v>
+      <c r="G11" s="113" t="s">
+        <v>64</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="40" t="s">
-        <v>73</v>
+      <c r="H11" s="114"/>
+      <c r="I11" s="105" t="s">
+        <v>70</v>
       </c>
-      <c r="J11" s="93"/>
+      <c r="J11" s="106"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2655,31 +2867,31 @@
     </row>
     <row r="12" spans="1:27" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="B12" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>65</v>
-      </c>
       <c r="E12" s="31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="141"/>
+      <c r="I12" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="143"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2704,16 +2916,16 @@
       </c>
       <c r="B13" s="34">
         <f>SUM(B7:B12)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2733,18 +2945,18 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="150"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2764,18 +2976,18 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2795,18 +3007,18 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
-        <v>80</v>
+      <c r="A16" s="122" t="s">
+        <v>77</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2826,18 +3038,18 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2857,18 +3069,18 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>81</v>
+      <c r="A18" s="122" t="s">
+        <v>78</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="O18" s="1"/>
@@ -2884,16 +3096,16 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="246.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="126"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="125"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="O19" s="1"/>
@@ -2909,18 +3121,18 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>82</v>
+      <c r="A20" s="122" t="s">
+        <v>79</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="O20" s="1"/>
@@ -2936,18 +3148,18 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2966,19 +3178,19 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
-        <v>83</v>
+    <row r="22" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="122" t="s">
+        <v>80</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2998,18 +3210,18 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3029,22 +3241,22 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="58" t="s">
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3064,12 +3276,12 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="21">
         <v>1</v>
       </c>
@@ -3104,15 +3316,15 @@
       <c r="A26" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="119" t="s">
-        <v>60</v>
+      <c r="B26" s="79" t="s">
+        <v>57</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="77" t="s">
-        <v>88</v>
+      <c r="C26" s="80"/>
+      <c r="D26" s="76" t="s">
+        <v>85</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
       <c r="G26" s="7"/>
       <c r="H26" s="18"/>
       <c r="I26" s="19"/>
@@ -3136,14 +3348,14 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="127"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="116" t="s">
-        <v>89</v>
+      <c r="A27" s="84"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="86" t="s">
+        <v>86</v>
       </c>
-      <c r="E27" s="117"/>
-      <c r="F27" s="118"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
       <c r="G27" s="7"/>
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
@@ -3167,16 +3379,16 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="127"/>
-      <c r="B28" s="119" t="s">
-        <v>61</v>
+      <c r="A28" s="84"/>
+      <c r="B28" s="79" t="s">
+        <v>58</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="128" t="s">
-        <v>90</v>
+      <c r="C28" s="80"/>
+      <c r="D28" s="89" t="s">
+        <v>87</v>
       </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="130"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91"/>
       <c r="G28" s="7"/>
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
@@ -3200,14 +3412,14 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="127"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="116" t="s">
-        <v>91</v>
+      <c r="A29" s="84"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="86" t="s">
+        <v>88</v>
       </c>
-      <c r="E29" s="117"/>
-      <c r="F29" s="118"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="7"/>
       <c r="H29" s="18"/>
       <c r="I29" s="19"/>
@@ -3231,16 +3443,16 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127"/>
-      <c r="B30" s="119" t="s">
-        <v>62</v>
+      <c r="A30" s="84"/>
+      <c r="B30" s="79" t="s">
+        <v>59</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="77" t="s">
-        <v>92</v>
+      <c r="C30" s="80"/>
+      <c r="D30" s="76" t="s">
+        <v>89</v>
       </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="7"/>
       <c r="H30" s="18"/>
       <c r="I30" s="14"/>
@@ -3264,14 +3476,14 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="135"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="116" t="s">
-        <v>93</v>
+      <c r="A31" s="85"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="86" t="s">
+        <v>90</v>
       </c>
-      <c r="E31" s="117"/>
-      <c r="F31" s="118"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
       <c r="G31" s="7"/>
       <c r="H31" s="18"/>
       <c r="I31" s="14"/>
@@ -3295,18 +3507,18 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="133" t="s">
+      <c r="A32" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="72" t="s">
-        <v>84</v>
+      <c r="B32" s="132" t="s">
+        <v>81</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="77" t="s">
-        <v>94</v>
+      <c r="C32" s="133"/>
+      <c r="D32" s="76" t="s">
+        <v>91</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="139"/>
       <c r="G32" s="7"/>
       <c r="H32" s="18"/>
       <c r="I32" s="14"/>
@@ -3330,16 +3542,16 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="84"/>
-      <c r="B33" s="72" t="s">
+      <c r="A33" s="136"/>
+      <c r="B33" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74" t="s">
-        <v>95</v>
+      <c r="C33" s="133"/>
+      <c r="D33" s="134" t="s">
+        <v>92</v>
       </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
       <c r="G33" s="7"/>
       <c r="H33" s="18"/>
       <c r="I33" s="14"/>
@@ -3363,16 +3575,16 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="84"/>
-      <c r="B34" s="72" t="s">
+      <c r="A34" s="136"/>
+      <c r="B34" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74" t="s">
-        <v>96</v>
+      <c r="C34" s="133"/>
+      <c r="D34" s="134" t="s">
+        <v>93</v>
       </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
       <c r="G34" s="7"/>
       <c r="H34" s="18"/>
       <c r="I34" s="14"/>
@@ -3396,16 +3608,16 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="134"/>
-      <c r="B35" s="72" t="s">
+      <c r="A35" s="137"/>
+      <c r="B35" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74" t="s">
-        <v>97</v>
+      <c r="C35" s="133"/>
+      <c r="D35" s="134" t="s">
+        <v>94</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="76"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
       <c r="G35" s="7"/>
       <c r="H35" s="18"/>
       <c r="I35" s="14"/>
@@ -3429,14 +3641,14 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3458,18 +3670,18 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="70" t="s">
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="69"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="128"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3494,17 +3706,17 @@
       <c r="A38" s="8">
         <v>8</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55">
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65">
         <v>100</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="64"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3529,17 +3741,17 @@
       <c r="A39" s="8">
         <v>7</v>
       </c>
-      <c r="B39" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="55">
+      <c r="B39" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="54"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="65">
+        <v>95</v>
+      </c>
+      <c r="G39" s="63"/>
+      <c r="H39" s="64"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3564,17 +3776,17 @@
       <c r="A40" s="8">
         <v>6</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="55">
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="65">
         <v>90</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="64"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3599,17 +3811,17 @@
       <c r="A41" s="8">
         <v>5</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55">
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65">
         <v>80</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3634,17 +3846,17 @@
       <c r="A42" s="8">
         <v>4</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55">
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65">
         <v>70</v>
       </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3669,17 +3881,17 @@
       <c r="A43" s="8">
         <v>3</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55">
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65">
         <v>60</v>
       </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="64"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3704,17 +3916,17 @@
       <c r="A44" s="8">
         <v>2</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55">
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65">
         <v>50</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="54"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="64"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3739,17 +3951,17 @@
       <c r="A45" s="8">
         <v>1</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55">
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65">
         <v>30</v>
       </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="54"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3841,16 +4053,16 @@
       <c r="D48" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="56">
+      <c r="E48" s="55">
         <v>1</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F48" s="55">
         <v>0</v>
       </c>
-      <c r="G48" s="58" t="s">
+      <c r="G48" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="60" t="s">
+      <c r="H48" s="59" t="s">
         <v>48</v>
       </c>
       <c r="I48" s="1"/>
@@ -3880,10 +4092,10 @@
       <c r="D49" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="61"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="60"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3905,18 +4117,18 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -22497,45 +22709,36 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J7"/>
     <mergeCell ref="I2:J2"/>
@@ -22552,36 +22755,45 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A50:J50"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -22596,10 +22808,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA948"/>
+  <dimension ref="A1:AA952"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:J18"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22618,134 +22830,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="111" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="92" t="s">
+      <c r="F2" s="100"/>
+      <c r="G2" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92" t="s">
+      <c r="H2" s="93"/>
+      <c r="I2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="92"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="113" t="s">
-        <v>57</v>
+      <c r="A3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="101" t="s">
+        <v>56</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="90" t="s">
+      <c r="F3" s="101"/>
+      <c r="G3" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="91" t="s">
-        <v>56</v>
+      <c r="B4" s="108"/>
+      <c r="C4" s="98" t="s">
+        <v>55</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="102" t="s">
-        <v>58</v>
+      <c r="D4" s="98"/>
+      <c r="E4" s="115" t="s">
+        <v>130</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="90" t="s">
+      <c r="F4" s="116"/>
+      <c r="G4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="104" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="97" t="s">
-        <v>55</v>
+      <c r="B6" s="108"/>
+      <c r="C6" s="110" t="s">
+        <v>54</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="80" t="s">
-        <v>59</v>
+      <c r="D6" s="110"/>
+      <c r="E6" s="119" t="s">
+        <v>131</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
     </row>
     <row r="7" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
     </row>
     <row r="8" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
     </row>
     <row r="9" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -22766,14 +22978,14 @@
       <c r="F9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99" t="s">
+      <c r="H9" s="112"/>
+      <c r="I9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="99"/>
+      <c r="J9" s="112"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -22794,31 +23006,31 @@
     </row>
     <row r="10" spans="1:27" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B10" s="37">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="100" t="s">
-        <v>109</v>
+      <c r="G10" s="113" t="s">
+        <v>104</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="100" t="s">
-        <v>107</v>
+      <c r="H10" s="114"/>
+      <c r="I10" s="113" t="s">
+        <v>102</v>
       </c>
-      <c r="J10" s="101"/>
+      <c r="J10" s="114"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -22839,31 +23051,31 @@
     </row>
     <row r="11" spans="1:27" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="35">
+        <v>15</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="35">
-        <v>20</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>108</v>
-      </c>
       <c r="E11" s="31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="100" t="s">
-        <v>110</v>
+      <c r="G11" s="113" t="s">
+        <v>105</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="40" t="s">
-        <v>106</v>
+      <c r="H11" s="114"/>
+      <c r="I11" s="105" t="s">
+        <v>101</v>
       </c>
-      <c r="J11" s="93"/>
+      <c r="J11" s="106"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -22888,16 +23100,16 @@
       </c>
       <c r="B12" s="34">
         <f>SUM(B7:B11)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -22917,18 +23129,18 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="150"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -22948,18 +23160,18 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -22979,16 +23191,18 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="A15" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -23008,18 +23222,18 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -23038,17 +23252,19 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+    <row r="17" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="O17" s="1"/>
@@ -23063,17 +23279,17 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="246.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="124"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="126"/>
+    <row r="18" spans="1:27" ht="277.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="123"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="125"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="O18" s="1"/>
@@ -23088,17 +23304,19 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
+    <row r="19" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="O19" s="1"/>
@@ -23113,81 +23331,71 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="1"/>
+    <row r="20" spans="1:27" ht="400.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="122"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>83</v>
+    <row r="21" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="122" t="s">
+        <v>117</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="1"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="88" t="s">
-        <v>31</v>
+    <row r="22" spans="1:27" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="140" t="s">
+        <v>30</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -23206,23 +23414,19 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
-        <v>33</v>
+    <row r="23" spans="1:27" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="122" t="s">
+        <v>116</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -23241,26 +23445,20 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="21">
-        <v>1</v>
+    <row r="24" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="71" t="s">
+        <v>31</v>
       </c>
-      <c r="H24" s="21">
-        <v>2</v>
-      </c>
-      <c r="I24" s="22">
-        <v>3</v>
-      </c>
-      <c r="J24" s="22">
-        <v>4</v>
-      </c>
-      <c r="K24" s="5"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -23278,21 +23476,23 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="83" t="s">
-        <v>11</v>
+    <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="72" t="s">
+        <v>33</v>
       </c>
-      <c r="B25" s="119" t="s">
-        <v>99</v>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74" t="s">
+        <v>10</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -23311,18 +23511,26 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="127"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="1"/>
+    <row r="26" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="21">
+        <v>1</v>
+      </c>
+      <c r="H26" s="21">
+        <v>2</v>
+      </c>
+      <c r="I26" s="22">
+        <v>3</v>
+      </c>
+      <c r="J26" s="22">
+        <v>4</v>
+      </c>
+      <c r="K26" s="5"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -23341,14 +23549,18 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="127"/>
-      <c r="B27" s="119" t="s">
-        <v>100</v>
+      <c r="A27" s="83" t="s">
+        <v>11</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="130"/>
+      <c r="B27" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="80"/>
+      <c r="D27" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="7"/>
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
@@ -23372,12 +23584,14 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="127"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="118"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="7"/>
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
@@ -23400,21 +23614,19 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="133" t="s">
-        <v>27</v>
+    <row r="29" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="84"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="86" t="s">
+        <v>119</v>
       </c>
-      <c r="B29" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="79"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="7"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -23433,19 +23645,21 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="84"/>
-      <c r="B30" s="72" t="s">
-        <v>41</v>
+      <c r="B30" s="79" t="s">
+        <v>97</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="76"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="7"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -23464,19 +23678,19 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="84"/>
-      <c r="B31" s="72" t="s">
-        <v>38</v>
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="89" t="s">
+        <v>122</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="76"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
       <c r="G31" s="7"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -23495,19 +23709,19 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="134"/>
-      <c r="B32" s="72" t="s">
-        <v>53</v>
+    <row r="32" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="84"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="86" t="s">
+        <v>123</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="76"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="7"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -23526,17 +23740,23 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+    <row r="33" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="133"/>
+      <c r="D33" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -23555,21 +23775,21 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>12</v>
+    <row r="34" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="136"/>
+      <c r="B34" s="132" t="s">
+        <v>41</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="70" t="s">
-        <v>13</v>
+      <c r="C34" s="133"/>
+      <c r="D34" s="134" t="s">
+        <v>124</v>
       </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -23588,23 +23808,21 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>8</v>
+    <row r="35" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="136"/>
+      <c r="B35" s="132" t="s">
+        <v>38</v>
       </c>
-      <c r="B35" s="52" t="s">
-        <v>14</v>
+      <c r="C35" s="133"/>
+      <c r="D35" s="134" t="s">
+        <v>125</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="55">
-        <v>100</v>
-      </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -23623,23 +23841,21 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>7</v>
+    <row r="36" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="137"/>
+      <c r="B36" s="132" t="s">
+        <v>53</v>
       </c>
-      <c r="B36" s="63" t="s">
-        <v>98</v>
+      <c r="C36" s="133"/>
+      <c r="D36" s="86" t="s">
+        <v>126</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="55">
-        <v>95</v>
-      </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -23659,20 +23875,14 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>6</v>
-      </c>
-      <c r="B37" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="55">
-        <v>90</v>
-      </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="54"/>
+      <c r="A37" s="130"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -23694,20 +23904,18 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>5</v>
+      <c r="A38" s="126" t="s">
+        <v>12</v>
       </c>
-      <c r="B38" s="66" t="s">
-        <v>49</v>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129" t="s">
+        <v>13</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55">
-        <v>80</v>
-      </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="128"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -23730,19 +23938,19 @@
     </row>
     <row r="39" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
-      <c r="B39" s="66" t="s">
-        <v>50</v>
+      <c r="B39" s="67" t="s">
+        <v>14</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="55">
-        <v>70</v>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="65">
+        <v>100</v>
       </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="54"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="64"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -23765,19 +23973,19 @@
     </row>
     <row r="40" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
-      <c r="B40" s="66" t="s">
-        <v>51</v>
+      <c r="B40" s="68" t="s">
+        <v>95</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="55">
-        <v>60</v>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="65">
+        <v>95</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="64"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -23800,19 +24008,19 @@
     </row>
     <row r="41" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
-      <c r="B41" s="62" t="s">
-        <v>15</v>
+      <c r="B41" s="68" t="s">
+        <v>52</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55">
-        <v>50</v>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="65">
+        <v>90</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -23835,19 +24043,19 @@
     </row>
     <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
-      <c r="B42" s="52" t="s">
-        <v>16</v>
+      <c r="B42" s="62" t="s">
+        <v>49</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55">
-        <v>30</v>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65">
+        <v>80</v>
       </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -23868,15 +24076,21 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+    <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>4</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65">
+        <v>70</v>
+      </c>
+      <c r="G43" s="63"/>
+      <c r="H43" s="64"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -23897,21 +24111,21 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="16" t="s">
-        <v>17</v>
+    <row r="44" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>3</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>18</v>
+      <c r="B44" s="62" t="s">
+        <v>51</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>19</v>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65">
+        <v>60</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="64"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -23932,25 +24146,21 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="17" t="s">
-        <v>20</v>
+    <row r="45" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>2</v>
       </c>
-      <c r="E45" s="56">
-        <v>1</v>
+      <c r="B45" s="66" t="s">
+        <v>15</v>
       </c>
-      <c r="F45" s="56">
-        <v>0</v>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65">
+        <v>50</v>
       </c>
-      <c r="G45" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="60" t="s">
-        <v>48</v>
-      </c>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -23971,17 +24181,21 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="38" t="s">
-        <v>21</v>
+    <row r="46" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>1</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="61"/>
+      <c r="B46" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65">
+        <v>30</v>
+      </c>
+      <c r="G46" s="63"/>
+      <c r="H46" s="64"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -24002,19 +24216,17 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
+    <row r="47" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -24033,15 +24245,21 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="4"/>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -24062,15 +24280,25 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="4"/>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="55">
+        <v>1</v>
+      </c>
+      <c r="F49" s="55">
+        <v>0</v>
+      </c>
+      <c r="G49" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>48</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -24091,15 +24319,17 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="4"/>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="60"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -24120,17 +24350,19 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+    <row r="51" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -27716,121 +27948,121 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
-      <c r="M175" s="6"/>
-      <c r="N175" s="6"/>
-      <c r="O175" s="6"/>
-      <c r="P175" s="6"/>
-      <c r="Q175" s="6"/>
-      <c r="R175" s="6"/>
-      <c r="S175" s="6"/>
-      <c r="T175" s="6"/>
-      <c r="U175" s="6"/>
-      <c r="V175" s="6"/>
-      <c r="W175" s="6"/>
-      <c r="X175" s="6"/>
-      <c r="Y175" s="6"/>
-      <c r="Z175" s="6"/>
-      <c r="AA175" s="6"/>
-    </row>
-    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
-      <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
-      <c r="O176" s="6"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
-      <c r="R176" s="6"/>
-      <c r="S176" s="6"/>
-      <c r="T176" s="6"/>
-      <c r="U176" s="6"/>
-      <c r="V176" s="6"/>
-      <c r="W176" s="6"/>
-      <c r="X176" s="6"/>
-      <c r="Y176" s="6"/>
-      <c r="Z176" s="6"/>
-      <c r="AA176" s="6"/>
-    </row>
-    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
-      <c r="K177" s="6"/>
-      <c r="L177" s="6"/>
-      <c r="M177" s="6"/>
-      <c r="N177" s="6"/>
-      <c r="O177" s="6"/>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="6"/>
-      <c r="R177" s="6"/>
-      <c r="S177" s="6"/>
-      <c r="T177" s="6"/>
-      <c r="U177" s="6"/>
-      <c r="V177" s="6"/>
-      <c r="W177" s="6"/>
-      <c r="X177" s="6"/>
-      <c r="Y177" s="6"/>
-      <c r="Z177" s="6"/>
-      <c r="AA177" s="6"/>
-    </row>
-    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
-      <c r="K178" s="6"/>
-      <c r="L178" s="6"/>
-      <c r="M178" s="6"/>
-      <c r="N178" s="6"/>
-      <c r="O178" s="6"/>
-      <c r="P178" s="6"/>
-      <c r="Q178" s="6"/>
-      <c r="R178" s="6"/>
-      <c r="S178" s="6"/>
-      <c r="T178" s="6"/>
-      <c r="U178" s="6"/>
-      <c r="V178" s="6"/>
-      <c r="W178" s="6"/>
-      <c r="X178" s="6"/>
-      <c r="Y178" s="6"/>
-      <c r="Z178" s="6"/>
-      <c r="AA178" s="6"/>
+    <row r="175" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+      <c r="X175" s="1"/>
+      <c r="Y175" s="1"/>
+      <c r="Z175" s="1"/>
+      <c r="AA175" s="1"/>
+    </row>
+    <row r="176" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+      <c r="Y176" s="1"/>
+      <c r="Z176" s="1"/>
+      <c r="AA176" s="1"/>
+    </row>
+    <row r="177" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+      <c r="Y177" s="1"/>
+      <c r="Z177" s="1"/>
+      <c r="AA177" s="1"/>
+    </row>
+    <row r="178" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="1"/>
+      <c r="W178" s="1"/>
+      <c r="X178" s="1"/>
+      <c r="Y178" s="1"/>
+      <c r="Z178" s="1"/>
+      <c r="AA178" s="1"/>
     </row>
     <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
@@ -50162,68 +50394,133 @@
       <c r="Z948" s="6"/>
       <c r="AA948" s="6"/>
     </row>
+    <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A949" s="6"/>
+      <c r="B949" s="6"/>
+      <c r="C949" s="6"/>
+      <c r="D949" s="6"/>
+      <c r="E949" s="6"/>
+      <c r="F949" s="6"/>
+      <c r="G949" s="6"/>
+      <c r="H949" s="6"/>
+      <c r="I949" s="6"/>
+      <c r="J949" s="6"/>
+      <c r="K949" s="6"/>
+      <c r="L949" s="6"/>
+      <c r="M949" s="6"/>
+      <c r="N949" s="6"/>
+      <c r="O949" s="6"/>
+      <c r="P949" s="6"/>
+      <c r="Q949" s="6"/>
+      <c r="R949" s="6"/>
+      <c r="S949" s="6"/>
+      <c r="T949" s="6"/>
+      <c r="U949" s="6"/>
+      <c r="V949" s="6"/>
+      <c r="W949" s="6"/>
+      <c r="X949" s="6"/>
+      <c r="Y949" s="6"/>
+      <c r="Z949" s="6"/>
+      <c r="AA949" s="6"/>
+    </row>
+    <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A950" s="6"/>
+      <c r="B950" s="6"/>
+      <c r="C950" s="6"/>
+      <c r="D950" s="6"/>
+      <c r="E950" s="6"/>
+      <c r="F950" s="6"/>
+      <c r="G950" s="6"/>
+      <c r="H950" s="6"/>
+      <c r="I950" s="6"/>
+      <c r="J950" s="6"/>
+      <c r="K950" s="6"/>
+      <c r="L950" s="6"/>
+      <c r="M950" s="6"/>
+      <c r="N950" s="6"/>
+      <c r="O950" s="6"/>
+      <c r="P950" s="6"/>
+      <c r="Q950" s="6"/>
+      <c r="R950" s="6"/>
+      <c r="S950" s="6"/>
+      <c r="T950" s="6"/>
+      <c r="U950" s="6"/>
+      <c r="V950" s="6"/>
+      <c r="W950" s="6"/>
+      <c r="X950" s="6"/>
+      <c r="Y950" s="6"/>
+      <c r="Z950" s="6"/>
+      <c r="AA950" s="6"/>
+    </row>
+    <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A951" s="6"/>
+      <c r="B951" s="6"/>
+      <c r="C951" s="6"/>
+      <c r="D951" s="6"/>
+      <c r="E951" s="6"/>
+      <c r="F951" s="6"/>
+      <c r="G951" s="6"/>
+      <c r="H951" s="6"/>
+      <c r="I951" s="6"/>
+      <c r="J951" s="6"/>
+      <c r="K951" s="6"/>
+      <c r="L951" s="6"/>
+      <c r="M951" s="6"/>
+      <c r="N951" s="6"/>
+      <c r="O951" s="6"/>
+      <c r="P951" s="6"/>
+      <c r="Q951" s="6"/>
+      <c r="R951" s="6"/>
+      <c r="S951" s="6"/>
+      <c r="T951" s="6"/>
+      <c r="U951" s="6"/>
+      <c r="V951" s="6"/>
+      <c r="W951" s="6"/>
+      <c r="X951" s="6"/>
+      <c r="Y951" s="6"/>
+      <c r="Z951" s="6"/>
+      <c r="AA951" s="6"/>
+    </row>
+    <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A952" s="6"/>
+      <c r="B952" s="6"/>
+      <c r="C952" s="6"/>
+      <c r="D952" s="6"/>
+      <c r="E952" s="6"/>
+      <c r="F952" s="6"/>
+      <c r="G952" s="6"/>
+      <c r="H952" s="6"/>
+      <c r="I952" s="6"/>
+      <c r="J952" s="6"/>
+      <c r="K952" s="6"/>
+      <c r="L952" s="6"/>
+      <c r="M952" s="6"/>
+      <c r="N952" s="6"/>
+      <c r="O952" s="6"/>
+      <c r="P952" s="6"/>
+      <c r="Q952" s="6"/>
+      <c r="R952" s="6"/>
+      <c r="S952" s="6"/>
+      <c r="T952" s="6"/>
+      <c r="U952" s="6"/>
+      <c r="V952" s="6"/>
+      <c r="W952" s="6"/>
+      <c r="X952" s="6"/>
+      <c r="Y952" s="6"/>
+      <c r="Z952" s="6"/>
+      <c r="AA952" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="D23:F24"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
+  <mergeCells count="84">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="A4:B5"/>
@@ -50235,15 +50532,70 @@
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:C32"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
@@ -50263,108 +50615,108 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>86</v>
+      <c r="A1" s="148" t="s">
+        <v>83</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136" t="s">
-        <v>85</v>
+      <c r="A2" s="151" t="s">
+        <v>82</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="138"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="142" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="144"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="142" t="s">
-        <v>77</v>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="148" t="s">
+        <v>84</v>
       </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="144"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="142" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="144"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="145" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147"/>
-    </row>
-    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -50383,7 +50735,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -50392,50 +50744,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="288" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="54" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="288" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151"/>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="152" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="151"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="153" t="s">
-        <v>116</v>
-      </c>
-    </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="149" t="s">
-        <v>117</v>
+      <c r="A38" s="50" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
